--- a/启程巡展车展对接资料/BTL车展_接口说明书_线索接收接口-e4s.xlsx
+++ b/启程巡展车展对接资料/BTL车展_接口说明书_线索接收接口-e4s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口调用说明" sheetId="20" r:id="rId1"/>
@@ -310,7 +310,7 @@
     <t>varchar2(500)</t>
   </si>
   <si>
-    <t>留空，看能否跳</t>
+    <t>我们没有</t>
   </si>
   <si>
     <t>originalPkValue</t>
@@ -331,7 +331,7 @@
     <t>num(20)</t>
   </si>
   <si>
-    <t>代表一个站点，二维码最后一个id、</t>
+    <t>站点id，100</t>
   </si>
   <si>
     <t>inteTypeId</t>
@@ -454,12 +454,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +493,12 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -535,7 +541,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,47 +577,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,38 +589,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -656,10 +614,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -673,6 +671,14 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -702,6 +708,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -714,19 +756,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,13 +810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,73 +828,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,31 +864,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,13 +888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,45 +1262,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1310,22 +1277,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1353,16 +1315,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1371,146 +1377,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1585,7 +1591,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1642,7 +1651,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1747,19 +1756,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1768,10 +1777,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1789,19 +1798,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1810,7 +1819,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1852,7 +1861,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1870,7 +1879,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2267,8 +2276,8 @@
   <sheetPr/>
   <dimension ref="B2:J54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2281,109 +2290,109 @@
   </cols>
   <sheetData>
     <row r="2" ht="17.25" spans="2:10">
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="115" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="116" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="2:10">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="47"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" ht="16.5" spans="2:10">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="116"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="117"/>
     </row>
     <row r="5" ht="16.5" spans="2:10">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="78" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="117"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" ht="16.5" spans="2:10">
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="78" t="s">
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="117"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="118"/>
     </row>
     <row r="7" ht="16.5" spans="2:10">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="116"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="117"/>
     </row>
     <row r="8" ht="15" spans="2:10">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="118"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="119"/>
     </row>
     <row r="9" ht="15" spans="2:10">
       <c r="B9" s="16" t="s">
@@ -2407,693 +2416,693 @@
       <c r="H9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="119" t="s">
+      <c r="I9" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="120"/>
+      <c r="J9" s="121"/>
     </row>
     <row r="10" ht="115.5" spans="2:10">
-      <c r="B10" s="28">
+      <c r="B10" s="29">
         <v>1</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82" t="s">
+      <c r="F10" s="83"/>
+      <c r="G10" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="83" t="s">
+      <c r="H10" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="121" t="s">
+      <c r="I10" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="122"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" ht="16.5" spans="2:10">
-      <c r="B11" s="28"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84" t="s">
+      <c r="F11" s="85"/>
+      <c r="G11" s="85" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="25"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="122"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="123"/>
     </row>
     <row r="12" ht="16.5" spans="2:10">
-      <c r="B12" s="85"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="87"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="88"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="122"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="123"/>
     </row>
     <row r="13" ht="16.5" spans="2:10">
-      <c r="B13" s="28"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="88"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="122"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="123"/>
     </row>
     <row r="14" ht="16.5" spans="2:10">
-      <c r="B14" s="28"/>
-      <c r="C14" s="84"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="88"/>
+      <c r="G14" s="89"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="122"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="15" ht="16.5" spans="2:10">
-      <c r="B15" s="28"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="88"/>
+      <c r="G15" s="89"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="122"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="123"/>
     </row>
     <row r="16" ht="16.5" spans="2:10">
-      <c r="B16" s="28"/>
-      <c r="C16" s="84"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="25"/>
-      <c r="E16" s="30"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="88"/>
+      <c r="G16" s="89"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="122"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="123"/>
     </row>
     <row r="17" ht="16.5" spans="2:10">
-      <c r="B17" s="28"/>
-      <c r="C17" s="84"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="25"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="122"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="123"/>
     </row>
     <row r="18" ht="16.5" spans="2:10">
-      <c r="B18" s="28"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="122"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="123"/>
     </row>
     <row r="19" ht="15" spans="2:10">
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="118"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="119"/>
     </row>
     <row r="20" ht="15" spans="2:10">
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="92" t="s">
+      <c r="E20" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="92" t="s">
+      <c r="F20" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="92" t="s">
+      <c r="G20" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="93"/>
-      <c r="I20" s="92" t="s">
+      <c r="H20" s="94"/>
+      <c r="I20" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="92"/>
+      <c r="J20" s="93"/>
     </row>
     <row r="21" ht="16.5" spans="2:10">
-      <c r="B21" s="94">
+      <c r="B21" s="95">
         <v>1</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="124" t="s">
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="125"/>
+      <c r="J21" s="126"/>
     </row>
     <row r="22" ht="16.5" spans="2:10">
-      <c r="B22" s="94">
+      <c r="B22" s="95">
         <v>2</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="84" t="s">
+      <c r="D22" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84" t="s">
+      <c r="F22" s="85"/>
+      <c r="G22" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="84" t="s">
+      <c r="H22" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
     </row>
     <row r="23" ht="16.5" spans="2:10">
-      <c r="B23" s="94">
+      <c r="B23" s="95">
         <v>3</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="84" t="s">
+      <c r="E23" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="125"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
     </row>
     <row r="24" ht="16.5" spans="2:10">
-      <c r="B24" s="94">
+      <c r="B24" s="95">
         <v>4</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="84" t="s">
+      <c r="D24" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="84" t="s">
+      <c r="E24" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82" t="s">
+      <c r="F24" s="83"/>
+      <c r="G24" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="84"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="125"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="126"/>
     </row>
     <row r="25" ht="16.5" spans="2:10">
-      <c r="B25" s="94">
+      <c r="B25" s="95">
         <v>5</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="84" t="s">
+      <c r="D25" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="84" t="s">
+      <c r="E25" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82" t="s">
+      <c r="F25" s="83"/>
+      <c r="G25" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="84" t="s">
+      <c r="H25" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="125"/>
-      <c r="J25" s="125"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
     </row>
     <row r="26" ht="16.5" spans="2:10">
-      <c r="B26" s="94">
+      <c r="B26" s="95">
         <v>6</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="84" t="s">
+      <c r="D26" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="82" t="s">
+      <c r="E26" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="84" t="s">
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="125"/>
-      <c r="J26" s="125"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="126"/>
     </row>
     <row r="27" ht="16.5" spans="2:10">
-      <c r="B27" s="94">
+      <c r="B27" s="95">
         <v>7</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="84" t="s">
+      <c r="D27" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="82" t="s">
+      <c r="E27" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="84" t="s">
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="I27" s="125"/>
-      <c r="J27" s="125"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
     </row>
     <row r="28" ht="16.5" spans="2:10">
-      <c r="B28" s="94">
+      <c r="B28" s="95">
         <v>8</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="82" t="s">
+      <c r="E28" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82" t="s">
+      <c r="F28" s="83"/>
+      <c r="G28" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="84" t="s">
+      <c r="H28" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="125"/>
-      <c r="J28" s="125"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="126"/>
     </row>
     <row r="29" ht="16.5" spans="2:10">
-      <c r="B29" s="94">
+      <c r="B29" s="95">
         <v>9</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="84" t="s">
+      <c r="D29" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="82" t="s">
+      <c r="E29" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="84" t="s">
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="125"/>
-      <c r="J29" s="125"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="126"/>
     </row>
     <row r="30" ht="16.5" spans="2:10">
-      <c r="B30" s="94">
+      <c r="B30" s="95">
         <v>10</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="84" t="s">
+      <c r="D30" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
     </row>
     <row r="31" ht="16.5" spans="2:10">
-      <c r="B31" s="94">
+      <c r="B31" s="95">
         <v>11</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="84" t="s">
+      <c r="D31" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="125"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="126"/>
     </row>
     <row r="32" ht="16.5" spans="2:10">
-      <c r="B32" s="94">
+      <c r="B32" s="95">
         <v>12</v>
       </c>
-      <c r="C32" s="95" t="s">
+      <c r="C32" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="96" t="s">
+      <c r="E32" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="97"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="125"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
     </row>
     <row r="33" ht="16.5" spans="2:10">
-      <c r="B33" s="94">
+      <c r="B33" s="95">
         <v>13</v>
       </c>
-      <c r="C33" s="84" t="s">
+      <c r="C33" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="84" t="s">
+      <c r="D33" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="98" t="s">
+      <c r="E33" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="97"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="125"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
     </row>
     <row r="34" ht="16.5" spans="2:10">
-      <c r="B34" s="94">
+      <c r="B34" s="95">
         <v>14</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="84" t="s">
+      <c r="D34" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="86"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="125"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="126"/>
     </row>
     <row r="35" ht="16.5" spans="2:10">
-      <c r="B35" s="94">
+      <c r="B35" s="95">
         <v>15</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="C35" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="84" t="s">
+      <c r="D35" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="E35" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="86"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="126"/>
     </row>
     <row r="36" ht="16.5" spans="2:10">
-      <c r="B36" s="94">
+      <c r="B36" s="95">
         <v>16</v>
       </c>
-      <c r="C36" s="84" t="s">
+      <c r="C36" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="84" t="s">
+      <c r="D36" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="100" t="s">
+      <c r="E36" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="86"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="125"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="126"/>
     </row>
     <row r="37" ht="16.5" spans="2:10">
-      <c r="B37" s="94">
+      <c r="B37" s="95">
         <v>17</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="84" t="s">
+      <c r="D37" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="103" t="s">
+      <c r="E37" s="104" t="s">
         <v>62</v>
       </c>
       <c r="F37" s="24"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="125"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="126"/>
     </row>
     <row r="38" ht="16.5" spans="2:10">
-      <c r="B38" s="94"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="103"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="104"/>
       <c r="F38" s="24"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="125"/>
-      <c r="J38" s="125"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="126"/>
+      <c r="J38" s="126"/>
     </row>
     <row r="39" ht="16.5" spans="2:10">
-      <c r="B39" s="94"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="103"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="104"/>
       <c r="F39" s="24"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="125"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="126"/>
     </row>
     <row r="40" ht="16.5" spans="2:10">
-      <c r="B40" s="94"/>
-      <c r="C40" s="84"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="85"/>
       <c r="D40" s="25"/>
-      <c r="E40" s="103"/>
+      <c r="E40" s="104"/>
       <c r="F40" s="24"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="125"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="126"/>
     </row>
     <row r="41" ht="16.5" spans="2:10">
-      <c r="B41" s="94"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
       <c r="F41" s="24"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="125"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="126"/>
+      <c r="J41" s="126"/>
     </row>
     <row r="42" ht="16.5" spans="2:10">
-      <c r="B42" s="94"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
       <c r="F42" s="24"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="125"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="126"/>
     </row>
     <row r="43" ht="16.5" spans="2:10">
-      <c r="B43" s="94"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="125"/>
-      <c r="J43" s="125"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="126"/>
     </row>
     <row r="44" ht="16.5" spans="2:10">
-      <c r="B44" s="94"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="125"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="126"/>
+      <c r="J44" s="126"/>
     </row>
     <row r="45" ht="16.5" spans="2:10">
-      <c r="B45" s="94"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="125"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="100"/>
+      <c r="I45" s="126"/>
+      <c r="J45" s="126"/>
     </row>
     <row r="46" ht="16.5" spans="2:10">
-      <c r="B46" s="94"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="125"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="126"/>
+      <c r="J46" s="126"/>
     </row>
     <row r="47" ht="16.5" spans="2:10">
-      <c r="B47" s="94"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="125"/>
-      <c r="J47" s="125"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="126"/>
+      <c r="J47" s="126"/>
     </row>
     <row r="48" ht="16.5" spans="2:10">
-      <c r="B48" s="94"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="125"/>
-      <c r="J48" s="125"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="126"/>
+      <c r="J48" s="126"/>
     </row>
     <row r="49" ht="16.5" spans="2:10">
-      <c r="B49" s="94"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="125"/>
-      <c r="J49" s="125"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="100"/>
+      <c r="I49" s="126"/>
+      <c r="J49" s="126"/>
     </row>
     <row r="50" ht="16.5" spans="2:10">
-      <c r="B50" s="94"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="125"/>
-      <c r="J50" s="125"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="126"/>
+      <c r="J50" s="126"/>
     </row>
     <row r="51" ht="16.5" spans="2:10">
-      <c r="B51" s="104"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="106"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="125"/>
-      <c r="J51" s="125"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="126"/>
+      <c r="J51" s="126"/>
     </row>
     <row r="52" ht="16.5" spans="2:10">
-      <c r="B52" s="104"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="108"/>
-      <c r="F52" s="108"/>
-      <c r="G52" s="108"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="125"/>
+      <c r="B52" s="105"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="109"/>
+      <c r="H52" s="110"/>
+      <c r="I52" s="126"/>
+      <c r="J52" s="126"/>
     </row>
     <row r="53" ht="16.5" spans="2:10">
-      <c r="B53" s="104"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="108"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="125"/>
-      <c r="J53" s="125"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="109"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="126"/>
+      <c r="J53" s="126"/>
     </row>
     <row r="54" ht="17.25" spans="2:10">
-      <c r="B54" s="110"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="113"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="125"/>
-      <c r="J54" s="125"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="115"/>
+      <c r="I54" s="126"/>
+      <c r="J54" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3129,8 +3138,8 @@
   <sheetPr/>
   <dimension ref="B2:K49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3155,7 +3164,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3180,10 +3189,10 @@
       <c r="I3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="47"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" ht="16.5" spans="2:11">
       <c r="B4" s="10" t="s">
@@ -3199,7 +3208,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="48"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" ht="16.5" spans="2:11">
       <c r="B5" s="10" t="s">
@@ -3215,7 +3224,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="49"/>
+      <c r="K5" s="50"/>
     </row>
     <row r="6" ht="16.5" spans="2:11">
       <c r="B6" s="10"/>
@@ -3229,7 +3238,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="49"/>
+      <c r="K6" s="50"/>
     </row>
     <row r="7" ht="16.5" spans="2:11">
       <c r="B7" s="10"/>
@@ -3243,7 +3252,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="49"/>
+      <c r="K7" s="50"/>
     </row>
     <row r="8" ht="16.5" spans="2:11">
       <c r="B8" s="10" t="s">
@@ -3259,7 +3268,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="48"/>
+      <c r="K8" s="49"/>
     </row>
     <row r="9" ht="15" spans="2:11">
       <c r="B9" s="10" t="s">
@@ -3273,7 +3282,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="50"/>
+      <c r="K9" s="51"/>
     </row>
     <row r="10" ht="15" spans="2:11">
       <c r="B10" s="16" t="s">
@@ -3297,11 +3306,11 @@
       <c r="H10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="52" t="s">
+      <c r="I10" s="52"/>
+      <c r="J10" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="53"/>
+      <c r="K10" s="54"/>
     </row>
     <row r="11" ht="16.5" spans="2:11">
       <c r="B11" s="18">
@@ -3317,11 +3326,11 @@
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="55" t="s">
+      <c r="I11" s="55"/>
+      <c r="J11" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="56"/>
+      <c r="K11" s="57"/>
     </row>
     <row r="12" ht="16.5" spans="2:11">
       <c r="B12" s="18">
@@ -3343,9 +3352,9 @@
       <c r="H12" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
     </row>
     <row r="13" ht="16.5" spans="2:11">
       <c r="B13" s="18">
@@ -3365,9 +3374,9 @@
         <v>72</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="60"/>
     </row>
     <row r="14" ht="16.5" spans="2:11">
       <c r="B14" s="18">
@@ -3389,9 +3398,9 @@
       <c r="H14" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
     </row>
     <row r="15" ht="16.5" spans="2:11">
       <c r="B15" s="18">
@@ -3409,9 +3418,9 @@
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="60"/>
     </row>
     <row r="16" ht="16.5" spans="2:11">
       <c r="B16" s="18">
@@ -3429,9 +3438,9 @@
       <c r="F16" s="22"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="60"/>
     </row>
     <row r="17" ht="33" spans="2:11">
       <c r="B17" s="18">
@@ -3453,9 +3462,9 @@
       <c r="H17" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="60"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="60"/>
     </row>
     <row r="18" ht="16.5" spans="2:11">
       <c r="B18" s="18">
@@ -3476,12 +3485,12 @@
       <c r="G18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="61"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="60"/>
     </row>
     <row r="19" ht="16.5" spans="2:11">
       <c r="B19" s="18"/>
@@ -3501,11 +3510,11 @@
         <v>26</v>
       </c>
       <c r="H19" s="25"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="59"/>
-    </row>
-    <row r="20" ht="33" spans="2:11">
+      <c r="I19" s="61"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="60"/>
+    </row>
+    <row r="20" ht="16.5" spans="2:11">
       <c r="B20" s="18"/>
       <c r="C20" s="24" t="s">
         <v>23</v>
@@ -3513,7 +3522,7 @@
       <c r="D20" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="27" t="s">
         <v>87</v>
       </c>
       <c r="F20" s="24" t="s">
@@ -3525,9 +3534,9 @@
       <c r="H20" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="I20" s="60"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="60"/>
     </row>
     <row r="21" ht="16.5" spans="2:11">
       <c r="B21" s="18"/>
@@ -3537,7 +3546,7 @@
       <c r="D21" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="27" t="s">
         <v>91</v>
       </c>
       <c r="F21" s="24"/>
@@ -3547,9 +3556,9 @@
       <c r="H21" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="60"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="60"/>
     </row>
     <row r="22" ht="16.5" spans="2:11">
       <c r="B22" s="18"/>
@@ -3559,7 +3568,7 @@
       <c r="D22" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="27" t="s">
         <v>94</v>
       </c>
       <c r="F22" s="24"/>
@@ -3567,9 +3576,9 @@
         <v>26</v>
       </c>
       <c r="H22" s="25"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="59"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="60"/>
     </row>
     <row r="23" ht="16.5" spans="2:11">
       <c r="B23" s="18"/>
@@ -3579,7 +3588,7 @@
       <c r="D23" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="27" t="s">
         <v>96</v>
       </c>
       <c r="F23" s="24"/>
@@ -3587,9 +3596,9 @@
         <v>26</v>
       </c>
       <c r="H23" s="25"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="60"/>
     </row>
     <row r="24" ht="27" spans="2:11">
       <c r="B24" s="18"/>
@@ -3599,7 +3608,7 @@
       <c r="D24" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="27" t="s">
         <v>98</v>
       </c>
       <c r="F24" s="24"/>
@@ -3609,9 +3618,9 @@
       <c r="H24" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="I24" s="61"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="59"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="60"/>
     </row>
     <row r="25" ht="33" spans="2:11">
       <c r="B25" s="18"/>
@@ -3621,7 +3630,7 @@
       <c r="D25" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="27" t="s">
         <v>101</v>
       </c>
       <c r="F25" s="24"/>
@@ -3631,9 +3640,9 @@
       <c r="H25" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="I25" s="60"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="59"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="60"/>
     </row>
     <row r="26" ht="16.5" spans="2:11">
       <c r="B26" s="18"/>
@@ -3643,7 +3652,7 @@
       <c r="D26" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="27" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="24"/>
@@ -3653,9 +3662,9 @@
       <c r="H26" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="60"/>
     </row>
     <row r="27" ht="33" spans="2:11">
       <c r="B27" s="18"/>
@@ -3665,7 +3674,7 @@
       <c r="D27" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="27" t="s">
         <v>107</v>
       </c>
       <c r="F27" s="24"/>
@@ -3675,9 +3684,9 @@
       <c r="H27" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="I27" s="60"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="59"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="60"/>
     </row>
     <row r="28" ht="16.5" spans="2:11">
       <c r="B28" s="18"/>
@@ -3687,19 +3696,19 @@
       <c r="D28" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="27" t="s">
         <v>110</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="59"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="60"/>
     </row>
     <row r="29" ht="16.5" spans="2:11">
       <c r="B29" s="18"/>
@@ -3709,7 +3718,7 @@
       <c r="D29" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="27" t="s">
         <v>113</v>
       </c>
       <c r="F29" s="24"/>
@@ -3719,19 +3728,19 @@
       <c r="H29" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I29" s="60"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="59"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="60"/>
     </row>
     <row r="30" ht="16.5" spans="2:11">
-      <c r="B30" s="28"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="30" t="s">
         <v>115</v>
       </c>
       <c r="F30" s="24"/>
@@ -3741,117 +3750,117 @@
       <c r="H30" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="I30" s="60"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="59"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="60"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="33" spans="2:11">
-      <c r="B31" s="28"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="31" t="s">
         <v>118</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="59"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="60"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="33" spans="2:11">
-      <c r="B32" s="28"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="31" t="s">
         <v>121</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="I32" s="62"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="59"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="60"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="66" spans="2:11">
-      <c r="B33" s="28"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="31" t="s">
         <v>122</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="I33" s="62"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="59"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="60"/>
     </row>
     <row r="34" ht="15" spans="2:11">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="63"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="64"/>
     </row>
     <row r="35" ht="15" spans="2:11">
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="34" t="s">
+      <c r="G35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="34" t="s">
+      <c r="H35" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34" t="s">
+      <c r="I35" s="35"/>
+      <c r="J35" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="34"/>
+      <c r="K35" s="35"/>
     </row>
     <row r="36" ht="16.5" spans="2:11">
       <c r="B36" s="18">
@@ -3868,10 +3877,10 @@
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
-      <c r="J36" s="64" t="s">
+      <c r="J36" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="K36" s="65"/>
+      <c r="K36" s="66"/>
     </row>
     <row r="37" ht="16.5" spans="2:11">
       <c r="B37" s="18">
@@ -3894,8 +3903,8 @@
         <v>3</v>
       </c>
       <c r="I37" s="20"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
     </row>
     <row r="38" ht="16.5" spans="2:11">
       <c r="B38" s="18">
@@ -3914,8 +3923,8 @@
       <c r="G38" s="22"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
     </row>
     <row r="39" ht="16.5" spans="2:11">
       <c r="B39" s="18">
@@ -3936,8 +3945,8 @@
       </c>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
     </row>
     <row r="40" ht="16.5" spans="2:11">
       <c r="B40" s="18">
@@ -3960,8 +3969,8 @@
         <v>42</v>
       </c>
       <c r="I40" s="20"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
     </row>
     <row r="41" ht="16.5" spans="2:11">
       <c r="B41" s="18">
@@ -3982,8 +3991,8 @@
         <v>44</v>
       </c>
       <c r="I41" s="20"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
     </row>
     <row r="42" ht="16.5" spans="2:11">
       <c r="B42" s="18">
@@ -4004,8 +4013,8 @@
         <v>46</v>
       </c>
       <c r="I42" s="20"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
     </row>
     <row r="43" ht="16.5" spans="2:11">
       <c r="B43" s="18">
@@ -4028,8 +4037,8 @@
         <v>125</v>
       </c>
       <c r="I43" s="20"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
     </row>
     <row r="44" ht="16.5" spans="2:11">
       <c r="B44" s="18">
@@ -4050,8 +4059,8 @@
         <v>51</v>
       </c>
       <c r="I44" s="20"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
     </row>
     <row r="45" ht="16.5" spans="2:11">
       <c r="B45" s="18">
@@ -4068,8 +4077,8 @@
       <c r="G45" s="22"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
     </row>
     <row r="46" ht="16.5" spans="2:11">
       <c r="B46" s="18">
@@ -4086,8 +4095,8 @@
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
     </row>
     <row r="47" ht="33.75" spans="2:11">
       <c r="B47" s="18">
@@ -4096,44 +4105,44 @@
       <c r="C47" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E47" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36" t="s">
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="I47" s="66"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
     </row>
     <row r="48" ht="16.5" spans="2:11">
-      <c r="B48" s="37"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
     </row>
     <row r="49" ht="17.25" spans="2:11">
-      <c r="B49" s="41"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="44"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="45"/>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/启程巡展车展对接资料/BTL车展_接口说明书_线索接收接口-e4s.xlsx
+++ b/启程巡展车展对接资料/BTL车展_接口说明书_线索接收接口-e4s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="接口调用说明" sheetId="20" r:id="rId1"/>
@@ -454,10 +454,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -541,14 +541,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,6 +586,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -569,26 +601,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -606,19 +659,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -630,52 +674,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,13 +708,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,18 +726,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -756,7 +738,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,7 +822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,19 +840,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,31 +864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,31 +882,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,6 +1262,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1277,17 +1316,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1315,60 +1359,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1377,16 +1377,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1395,118 +1395,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
@@ -2276,8 +2276,8 @@
   <sheetPr/>
   <dimension ref="B2:J54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21:J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3138,8 +3138,8 @@
   <sheetPr/>
   <dimension ref="B2:K49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:K33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/启程巡展车展对接资料/BTL车展_接口说明书_线索接收接口-e4s.xlsx
+++ b/启程巡展车展对接资料/BTL车展_接口说明书_线索接收接口-e4s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480" activeTab="2"/>
+    <workbookView windowWidth="29040" windowHeight="12780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="接口调用说明" sheetId="20" r:id="rId1"/>
@@ -331,7 +331,7 @@
     <t>num(20)</t>
   </si>
   <si>
-    <t>站点id，100</t>
+    <t>2维码告诉我，站点id</t>
   </si>
   <si>
     <t>inteTypeId</t>
@@ -454,10 +454,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -540,8 +540,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,17 +554,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -570,9 +567,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,21 +597,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,7 +630,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,23 +658,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,7 +708,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,6 +750,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -738,67 +774,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,13 +834,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,31 +852,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,13 +882,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,6 +1258,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1280,6 +1295,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1287,16 +1311,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1335,40 +1359,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1377,7 +1377,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1386,7 +1386,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1398,10 +1398,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1413,100 +1413,100 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
@@ -3139,7 +3139,7 @@
   <dimension ref="B2:K49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3514,7 +3514,7 @@
       <c r="J19" s="59"/>
       <c r="K19" s="60"/>
     </row>
-    <row r="20" ht="16.5" spans="2:11">
+    <row r="20" ht="33" spans="2:11">
       <c r="B20" s="18"/>
       <c r="C20" s="24" t="s">
         <v>23</v>

--- a/启程巡展车展对接资料/BTL车展_接口说明书_线索接收接口-e4s.xlsx
+++ b/启程巡展车展对接资料/BTL车展_接口说明书_线索接收接口-e4s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12780" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="接口调用说明" sheetId="20" r:id="rId1"/>
@@ -540,11 +540,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -553,15 +548,36 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,6 +585,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,9 +605,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,6 +627,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -613,54 +651,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,13 +708,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +738,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,7 +756,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,7 +774,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,13 +816,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,73 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,7 +864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,7 +882,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,32 +1262,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1297,15 +1276,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1342,6 +1312,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1351,11 +1345,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1365,10 +1365,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1377,16 +1377,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1395,118 +1395,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
@@ -3138,8 +3138,8 @@
   <sheetPr/>
   <dimension ref="B2:K49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/启程巡展车展对接资料/BTL车展_接口说明书_线索接收接口-e4s.xlsx
+++ b/启程巡展车展对接资料/BTL车展_接口说明书_线索接收接口-e4s.xlsx
@@ -54,7 +54,7 @@
     <t>测试：/api/getToken</t>
   </si>
   <si>
-    <t>正式：/api/getToken</t>
+    <t>正式：http://service.chebaba.com/api/getToken?token=3d2ca3e70a2409718ecce5abcf58430347f4ba2ab2d5e04ecb96e33de51683fc48f9538a6d20d09a03b2aadfd571f4d09716e059d4ecd1c43e530b10ad6125b8&amp;grantType=appClient</t>
   </si>
   <si>
     <t>接口说明</t>
@@ -454,8 +454,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -540,44 +540,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,13 +550,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,7 +564,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,9 +584,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,15 +600,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,16 +630,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,11 +661,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -708,37 +708,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,13 +738,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,43 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,7 +780,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,31 +828,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,13 +858,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,24 +1262,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1291,6 +1273,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1310,15 +1301,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1330,6 +1312,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1365,10 +1365,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1377,16 +1377,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1395,118 +1395,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
@@ -2248,7 +2248,7 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -2276,8 +2276,8 @@
   <sheetPr/>
   <dimension ref="B2:J54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:J54"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3138,8 +3138,8 @@
   <sheetPr/>
   <dimension ref="B2:K49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
